--- a/NEW HR/COSINO, RIMWELL.xlsx
+++ b/NEW HR/COSINO, RIMWELL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>3/6,7/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +949,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1013,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1073,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1139,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,7 +1202,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1300,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1359,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1424,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1467,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1542,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1728,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1794,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1852,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1918,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1974,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2049,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2158,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2214,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,9 +2660,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,7 +2825,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.417000000000002</v>
+        <v>14.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2832,7 +2835,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.417000000000002</v>
+        <v>16.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3214,15 +3217,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>44986</v>
+      </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -3230,15 +3237,19 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45017</v>
+      </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
@@ -3246,15 +3257,19 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45047</v>
+      </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -3262,10 +3277,16 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
@@ -3275,10 +3296,14 @@
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45108</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3294,7 +3319,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45139</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3310,7 +3337,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45170</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3326,7 +3355,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45200</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3342,7 +3373,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45231</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3358,7 +3391,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>45261</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
